--- a/5_agile/Daily_Scrum.xlsx
+++ b/5_agile/Daily_Scrum.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>Day 1</t>
   </si>
@@ -172,6 +172,15 @@
   </si>
   <si>
     <t>El Rainmakers Daily Scrum Doily scrum meetings</t>
+  </si>
+  <si>
+    <t>Parser</t>
+  </si>
+  <si>
+    <t>Finalization</t>
+  </si>
+  <si>
+    <t>Saving/loading</t>
   </si>
 </sst>
 </file>
@@ -601,7 +610,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -614,7 +623,9 @@
   </sheetPr>
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -930,7 +941,7 @@
         <v>45</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>30</v>
@@ -950,7 +961,9 @@
       <c r="B22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -961,7 +974,9 @@
       <c r="B23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -972,7 +987,9 @@
       <c r="B24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
